--- a/TemplateReport.xlsx
+++ b/TemplateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA78321E-9EE2-4C55-BF1E-DA96A144B9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B51F2-40E7-44D9-9501-066F54A28CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,13 +35,13 @@
     <t>Отчет по регистрациям в приложении "Мой Доктор" с 12.07.22</t>
   </si>
   <si>
-    <t xml:space="preserve">по 13.10.22 </t>
+    <t xml:space="preserve">по 21.10.22 </t>
   </si>
   <si>
     <t>весь период</t>
   </si>
   <si>
-    <t>неделя 09-30 по 10-06</t>
+    <t>неделя 10-06 по 10-12</t>
   </si>
   <si>
     <t>октябрь</t>
@@ -915,31 +915,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>2.8708133971291867E-2</c:v>
+                  <c:v>3.0837004405286344E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0309278350515464E-2</c:v>
+                  <c:v>4.1533546325878593E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.11731843575419E-2</c:v>
+                  <c:v>2.0942408376963352E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7522935779816515E-2</c:v>
+                  <c:v>6.6115702479338845E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4653465346534656E-2</c:v>
+                  <c:v>4.3577981651376149E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6246719160104987E-2</c:v>
+                  <c:v>2.6506024096385541E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1724137931034482E-2</c:v>
+                  <c:v>4.9450549450549448E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2435897435897436E-2</c:v>
+                  <c:v>2.0895522388059702E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -948,112 +948,112 @@
                   <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7241379310344827E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8235294117647065E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.515625E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3902439024390241E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7960954446854663E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6442307692307692E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3245033112582781E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7622950819672137E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7444933920704845E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2253521126760563E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.7024128686327081E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6105610561056105E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.644646924829157E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2842639593908629E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5161290322580643E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.64741641337386E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2083333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3953488372093026E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0697674418604654E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0691244239631339E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8672566371681415E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>3.1152647975077882E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4516129032258063E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.4934497816593885E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3554006968641118E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.4682080924855488E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8061224489795918E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4234875444839857E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.4229934924078092E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.3529411764705882E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.3582089552238806E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.3977272727272728E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.1578947368421054E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.1379310344827586E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.9405940594059403E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.6269430051813469E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.9230769230769232E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9154518950437316E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3195020746887967E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.6809815950920248E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.6410256410256411E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9504950495049507E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7383177570093455E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.903225806451613E-2</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6497175141242938E-2</c:v>
+                  <c:v>5.7894736842105263E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6218487394957986E-2</c:v>
+                  <c:v>4.8979591836734691E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7902813299232736E-2</c:v>
+                  <c:v>1.6908212560386472E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.3321299638989168E-2</c:v>
+                  <c:v>4.195804195804196E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7701974865350089E-2</c:v>
+                  <c:v>3.7581699346405227E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4510385756676561E-2</c:v>
+                  <c:v>4.2134831460674156E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.7397260273972601E-2</c:v>
+                  <c:v>3.9473684210526314E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.06</c:v>
+                  <c:v>6.1946902654867256E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.128205128205128E-2</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1061,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7178-4C5D-9DD9-60753BBE9DEA}"/>
+              <c16:uniqueId val="{00000000-D282-41FE-BB41-4FD027067E27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1247,31 +1247,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>5.4054054054054057E-2</c:v>
+                  <c:v>5.4545454545454543E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12698412698412698</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.6774193548387094E-2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1280,109 +1280,109 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>4.4776119402985072E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17910447761194029</c:v>
+                  <c:v>0.12962962962962962</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4102564102564097E-2</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1739130434782608E-2</c:v>
+                  <c:v>1.4285714285714285E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40909090909090912</c:v>
+                  <c:v>0.36619718309859156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1</c:v>
+                  <c:v>0.15942028985507245</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16</c:v>
+                  <c:v>0.17073170731707318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25714285714285712</c:v>
+                  <c:v>0.26785714285714285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17142857142857143</c:v>
+                  <c:v>0.26415094339622641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.10869565217391304</c:v>
+                  <c:v>7.0588235294117646E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4054054054054057E-2</c:v>
+                  <c:v>5.3571428571428568E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1081081081081086E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>0.17948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.1081081081081086E-2</c:v>
+                  <c:v>0.28169014084507044</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>8.5714285714285715E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.12820512820512819</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>7.3170731707317069E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.10344827586206896</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>6.4516129032258063E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.13513513513513514</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9411764705882353E-2</c:v>
+                  <c:v>1.7543859649122806E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>8.5714285714285715E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.9767441860465115E-2</c:v>
+                  <c:v>4.8387096774193547E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -1393,7 +1393,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7178-4C5D-9DD9-60753BBE9DEA}"/>
+              <c16:uniqueId val="{00000001-D282-41FE-BB41-4FD027067E27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1406,7 +1406,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>неделя 09-30 по 10-06</c:v>
+                  <c:v>неделя 10-06 по 10-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1575,28 +1575,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8823529411764705E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6956521739130432E-2</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1605,112 +1605,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22580645161290322</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.04</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1875</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23809523809523808</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.14814814814814814</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>0.1891891891891892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -1721,7 +1721,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7178-4C5D-9DD9-60753BBE9DEA}"/>
+              <c16:uniqueId val="{00000002-D282-41FE-BB41-4FD027067E27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2197,9 +2197,9 @@
   </sheetPr>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,8 +2223,8 @@
     <col min="20" max="20" width="8.109375" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.109375" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="2"/>
+    <col min="23" max="26" width="9.109375" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2374,44 +2374,44 @@
         <v>14</v>
       </c>
       <c r="C4" s="20">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D4" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" ref="E4:E51" si="0">D4/C4</f>
-        <v>2.8708133971291867E-2</v>
+        <v>3.0837004405286344E-2</v>
       </c>
       <c r="F4" s="40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="38">
         <f t="shared" ref="H4:H51" si="1">G4/F4</f>
-        <v>0</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="I4" s="40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J4" s="40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="38">
         <f t="shared" ref="K4:K50" si="2">J4/I4</f>
-        <v>0</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="L4" s="22">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M4" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="23">
         <f t="shared" ref="N4:N51" si="3">M4/L4</f>
-        <v>5.4054054054054057E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="O4" s="19">
         <v>70</v>
@@ -2452,44 +2452,44 @@
         <v>15</v>
       </c>
       <c r="C5" s="20">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="D5" s="20">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>1.0309278350515464E-2</v>
+        <v>4.1533546325878593E-2</v>
       </c>
       <c r="F5" s="41">
         <v>17</v>
       </c>
       <c r="G5" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="41">
         <v>17</v>
       </c>
       <c r="J5" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" si="2"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="O5" s="5">
         <v>74</v>
@@ -2530,44 +2530,44 @@
         <v>16</v>
       </c>
       <c r="C6" s="20">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D6" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>1.11731843575419E-2</v>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="F6" s="41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="5">
         <v>69</v>
@@ -2608,44 +2608,44 @@
         <v>17</v>
       </c>
       <c r="C7" s="20">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D7" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>2.7522935779816515E-2</v>
+        <v>6.6115702479338845E-2</v>
       </c>
       <c r="F7" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I7" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O7" s="5">
         <v>35</v>
@@ -2686,44 +2686,44 @@
         <v>18</v>
       </c>
       <c r="C8" s="20">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="D8" s="20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>3.4653465346534656E-2</v>
+        <v>4.3577981651376149E-2</v>
       </c>
       <c r="F8" s="41">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G8" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" si="1"/>
-        <v>8.6956521739130432E-2</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="I8" s="41">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J8" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="2"/>
-        <v>8.6956521739130432E-2</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="L8" s="7">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N8" s="23">
         <f t="shared" si="3"/>
-        <v>0.12698412698412698</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="O8" s="5">
         <v>130</v>
@@ -2764,44 +2764,44 @@
         <v>19</v>
       </c>
       <c r="C9" s="20">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="D9" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="0"/>
-        <v>2.6246719160104987E-2</v>
+        <v>2.6506024096385541E-2</v>
       </c>
       <c r="F9" s="41">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G9" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="I9" s="41">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J9" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="L9" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="3"/>
-        <v>0.06</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O9" s="5">
         <v>140</v>
@@ -2842,44 +2842,44 @@
         <v>20</v>
       </c>
       <c r="C10" s="20">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D10" s="20">
         <v>9</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>5.1724137931034482E-2</v>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="F10" s="41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I10" s="41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L10" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O10" s="5">
         <v>43</v>
@@ -2920,44 +2920,44 @@
         <v>21</v>
       </c>
       <c r="C11" s="20">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20">
         <v>7</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>2.2435897435897436E-2</v>
+        <v>2.0895522388059702E-2</v>
       </c>
       <c r="F11" s="41">
         <v>18</v>
       </c>
       <c r="G11" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I11" s="41">
         <v>18</v>
       </c>
       <c r="J11" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L11" s="7">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="23">
         <f t="shared" si="3"/>
-        <v>9.6774193548387094E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="O11" s="5">
         <v>99</v>
@@ -2998,17 +2998,17 @@
         <v>23</v>
       </c>
       <c r="C12" s="20">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>1.4705882352941176E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F12" s="41">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G12" s="41">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="41">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J12" s="41">
         <v>0</v>
@@ -3028,14 +3028,14 @@
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="3"/>
-        <v>4.5454545454545456E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="O12" s="5">
         <v>40</v>
@@ -3076,7 +3076,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="20">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20">
         <v>0</v>
@@ -3086,27 +3086,27 @@
         <v>0</v>
       </c>
       <c r="F13" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="38" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I13" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" s="41">
         <v>0</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="38" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L13" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3164,24 +3164,24 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="F14" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7">
         <v>3</v>
@@ -3232,44 +3232,44 @@
         <v>26</v>
       </c>
       <c r="C15" s="20">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
-        <v>1.7241379310344827E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="F15" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="41">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I15" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="41">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="K15" s="38">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O15" s="5">
         <v>19</v>
@@ -3310,44 +3310,44 @@
         <v>27</v>
       </c>
       <c r="C16" s="20">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="D16" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
-        <v>3.1152647975077882E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F16" s="41">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G16" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="1"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I16" s="41">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J16" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="38">
         <f t="shared" si="2"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L16" s="7">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="O16" s="5">
         <v>115</v>
@@ -3388,40 +3388,40 @@
         <v>28</v>
       </c>
       <c r="C17" s="20">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D17" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
-        <v>6.4516129032258063E-2</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F17" s="41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="41">
         <v>0</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="38" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I17" s="41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="41">
         <v>0</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="38" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="3"/>
@@ -3466,44 +3466,44 @@
         <v>29</v>
       </c>
       <c r="C18" s="20">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D18" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>3.4934497816593885E-2</v>
+        <v>3.515625E-2</v>
       </c>
       <c r="F18" s="41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="41">
         <v>2</v>
       </c>
       <c r="H18" s="38">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I18" s="41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="41">
         <v>2</v>
       </c>
       <c r="K18" s="38">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L18" s="7">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="23">
         <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="O18" s="5">
         <v>84</v>
@@ -3544,44 +3544,44 @@
         <v>31</v>
       </c>
       <c r="C19" s="20">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="D19" s="20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
-        <v>4.3554006968641118E-2</v>
+        <v>4.3902439024390241E-2</v>
       </c>
       <c r="F19" s="41">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G19" s="41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="1"/>
-        <v>0.22580645161290322</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I19" s="41">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J19" s="41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="38">
         <f t="shared" si="2"/>
-        <v>0.22580645161290322</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L19" s="7">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="3"/>
-        <v>0.17910447761194029</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="O19" s="5">
         <v>175</v>
@@ -3622,44 +3622,44 @@
         <v>32</v>
       </c>
       <c r="C20" s="20">
-        <v>865</v>
+        <v>922</v>
       </c>
       <c r="D20" s="20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
-        <v>3.4682080924855488E-2</v>
+        <v>3.7960954446854663E-2</v>
       </c>
       <c r="F20" s="41">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="38">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I20" s="41">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="38">
         <f t="shared" si="2"/>
-        <v>2.0833333333333332E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="3"/>
-        <v>6.4102564102564097E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="O20" s="5">
         <v>296</v>
@@ -3700,44 +3700,44 @@
         <v>33</v>
       </c>
       <c r="C21" s="20">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="D21" s="20">
         <v>11</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
-        <v>2.8061224489795918E-2</v>
+        <v>2.6442307692307692E-2</v>
       </c>
       <c r="F21" s="41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="41">
         <v>1</v>
       </c>
       <c r="H21" s="38">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I21" s="41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="41">
         <v>1</v>
       </c>
       <c r="K21" s="38">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="3"/>
-        <v>2.1739130434782608E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="O21" s="5">
         <v>139</v>
@@ -3778,44 +3778,44 @@
         <v>34</v>
       </c>
       <c r="C22" s="20">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D22" s="20">
         <v>4</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
-        <v>1.4234875444839857E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F22" s="41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G22" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="38">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I22" s="41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J22" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="38">
         <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="O22" s="5">
         <v>97</v>
@@ -3856,44 +3856,44 @@
         <v>35</v>
       </c>
       <c r="C23" s="20">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="D23" s="20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
-        <v>5.4229934924078092E-2</v>
+        <v>6.7622950819672137E-2</v>
       </c>
       <c r="F23" s="41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H23" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K23" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L23" s="7">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="3"/>
-        <v>0.40909090909090912</v>
+        <v>0.36619718309859156</v>
       </c>
       <c r="O23" s="5">
         <v>151</v>
@@ -3934,44 +3934,44 @@
         <v>36</v>
       </c>
       <c r="C24" s="20">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="D24" s="20">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>2.3529411764705882E-2</v>
+        <v>3.7444933920704845E-2</v>
       </c>
       <c r="F24" s="41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G24" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="38">
         <f t="shared" si="1"/>
-        <v>3.8461538461538464E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I24" s="41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J24" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" s="38">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L24" s="7">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.15942028985507245</v>
       </c>
       <c r="O24" s="5">
         <v>139</v>
@@ -4012,44 +4012,44 @@
         <v>38</v>
       </c>
       <c r="C25" s="20">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D25" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>3.3582089552238806E-2</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="F25" s="41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G25" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="38">
         <f t="shared" si="1"/>
-        <v>0.1875</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I25" s="41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J25" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="38">
         <f t="shared" si="2"/>
-        <v>0.1875</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L25" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="3"/>
-        <v>0.16</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="O25" s="5">
         <v>91</v>
@@ -4090,44 +4090,44 @@
         <v>39</v>
       </c>
       <c r="C26" s="20">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D26" s="20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>5.3977272727272728E-2</v>
+        <v>6.7024128686327081E-2</v>
       </c>
       <c r="F26" s="41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G26" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26" s="38">
         <f t="shared" si="1"/>
-        <v>0.2608695652173913</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="I26" s="41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J26" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K26" s="38">
         <f t="shared" si="2"/>
-        <v>0.2608695652173913</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="L26" s="7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="3"/>
-        <v>0.25714285714285712</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="O26" s="5">
         <v>124</v>
@@ -4168,44 +4168,44 @@
         <v>40</v>
       </c>
       <c r="C27" s="20">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D27" s="20">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>3.1578947368421054E-2</v>
+        <v>5.6105610561056105E-2</v>
       </c>
       <c r="F27" s="41">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G27" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="38">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I27" s="41">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J27" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="38">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="L27" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="3"/>
-        <v>0.17142857142857143</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="O27" s="5">
         <v>94</v>
@@ -4246,44 +4246,44 @@
         <v>41</v>
       </c>
       <c r="C28" s="20">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="D28" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>3.644646924829157E-2</v>
       </c>
       <c r="F28" s="41">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G28" s="41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="38">
         <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I28" s="41">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J28" s="41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28" s="38">
         <f t="shared" si="2"/>
-        <v>0.23809523809523808</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="L28" s="7">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M28" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>0.10869565217391304</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="O28" s="5">
         <v>148</v>
@@ -4324,44 +4324,44 @@
         <v>42</v>
       </c>
       <c r="C29" s="20">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="D29" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>2.1333333333333333E-2</v>
+        <v>2.2842639593908629E-2</v>
       </c>
       <c r="F29" s="41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G29" s="41">
         <v>1</v>
       </c>
       <c r="H29" s="38">
         <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="I29" s="41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" s="41">
         <v>1</v>
       </c>
       <c r="K29" s="38">
         <f t="shared" si="2"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="L29" s="7">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="3"/>
-        <v>5.4054054054054057E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="O29" s="5">
         <v>131</v>
@@ -4402,44 +4402,44 @@
         <v>44</v>
       </c>
       <c r="C30" s="20">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D30" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>4.1379310344827586E-2</v>
+        <v>4.5161290322580643E-2</v>
       </c>
       <c r="F30" s="41">
         <v>17</v>
       </c>
       <c r="G30" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I30" s="41">
         <v>17</v>
       </c>
       <c r="J30" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="L30" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O30" s="5">
         <v>43</v>
@@ -4480,44 +4480,44 @@
         <v>45</v>
       </c>
       <c r="C31" s="20">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D31" s="20">
         <v>6</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>5.9405940594059403E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="F31" s="41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="38">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J31" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31" s="38">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L31" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <v>0.2</v>
       </c>
       <c r="O31" s="5">
         <v>41</v>
@@ -4558,44 +4558,44 @@
         <v>46</v>
       </c>
       <c r="C32" s="20">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D32" s="20">
         <v>7</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>3.6269430051813469E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F32" s="41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32" s="41">
         <v>1</v>
       </c>
       <c r="H32" s="38">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I32" s="41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J32" s="41">
         <v>1</v>
       </c>
       <c r="K32" s="38">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="L32" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="3"/>
-        <v>3.7037037037037035E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="O32" s="5">
         <v>59</v>
@@ -4636,44 +4636,44 @@
         <v>47</v>
       </c>
       <c r="C33" s="20">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D33" s="20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>1.9230769230769232E-2</v>
+        <v>3.64741641337386E-2</v>
       </c>
       <c r="F33" s="41">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G33" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="38">
         <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="I33" s="41">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J33" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" s="38">
         <f t="shared" si="2"/>
-        <v>5.2631578947368418E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="L33" s="7">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="3"/>
-        <v>8.1081081081081086E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O33" s="5">
         <v>120</v>
@@ -4714,44 +4714,44 @@
         <v>48</v>
       </c>
       <c r="C34" s="20">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="D34" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>2.9154518950437316E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="F34" s="41">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G34" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" s="38">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I34" s="41">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J34" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K34" s="38">
         <f t="shared" si="2"/>
-        <v>0.14814814814814814</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L34" s="7">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="3"/>
-        <v>0.10810810810810811</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="O34" s="5">
         <v>134</v>
@@ -4792,44 +4792,44 @@
         <v>50</v>
       </c>
       <c r="C35" s="20">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="D35" s="20">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>3.3195020746887967E-2</v>
+        <v>6.3953488372093026E-2</v>
       </c>
       <c r="F35" s="41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="38">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I35" s="41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J35" s="41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K35" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="L35" s="7">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="3"/>
-        <v>8.1081081081081086E-2</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="O35" s="5">
         <v>186</v>
@@ -4870,44 +4870,44 @@
         <v>51</v>
       </c>
       <c r="C36" s="20">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D36" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
-        <v>3.6809815950920248E-2</v>
+        <v>4.0697674418604654E-2</v>
       </c>
       <c r="F36" s="41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G36" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I36" s="41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J36" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L36" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M36" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="O36" s="5">
         <v>68</v>
@@ -4948,40 +4948,40 @@
         <v>52</v>
       </c>
       <c r="C37" s="20">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D37" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
-        <v>5.6410256410256411E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F37" s="41">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G37" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="38">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="I37" s="41">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J37" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="38">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="L37" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="3"/>
@@ -5026,44 +5026,44 @@
         <v>53</v>
       </c>
       <c r="C38" s="20">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D38" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>4.9504950495049507E-2</v>
+        <v>5.0691244239631339E-2</v>
       </c>
       <c r="F38" s="41">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G38" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="I38" s="41">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J38" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="L38" s="7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M38" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="O38" s="5">
         <v>71</v>
@@ -5104,17 +5104,17 @@
         <v>54</v>
       </c>
       <c r="C39" s="20">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D39" s="20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
-        <v>3.7383177570093455E-2</v>
+        <v>4.8672566371681415E-2</v>
       </c>
       <c r="F39" s="41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G39" s="41">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J39" s="41">
         <v>0</v>
@@ -5134,14 +5134,14 @@
         <v>0</v>
       </c>
       <c r="L39" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="O39" s="5">
         <v>63</v>
@@ -5182,44 +5182,44 @@
         <v>55</v>
       </c>
       <c r="C40" s="20">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D40" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
-        <v>2.903225806451613E-2</v>
+        <v>3.1152647975077882E-2</v>
       </c>
       <c r="F40" s="41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I40" s="41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J40" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L40" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" s="23">
         <f t="shared" si="3"/>
-        <v>0.10344827586206896</v>
+        <v>0.1</v>
       </c>
       <c r="O40" s="5">
         <v>96</v>
@@ -5260,44 +5260,44 @@
         <v>56</v>
       </c>
       <c r="C41" s="20">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D41" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>5.6497175141242938E-2</v>
+        <v>5.7894736842105263E-2</v>
       </c>
       <c r="F41" s="41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" s="41">
         <v>1</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I41" s="41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J41" s="41">
         <v>1</v>
       </c>
       <c r="K41" s="38">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="L41" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="O41" s="5">
         <v>62</v>
@@ -5338,44 +5338,44 @@
         <v>57</v>
       </c>
       <c r="C42" s="20">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D42" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
-        <v>4.6218487394957986E-2</v>
+        <v>4.8979591836734691E-2</v>
       </c>
       <c r="F42" s="41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G42" s="41">
         <v>2</v>
       </c>
       <c r="H42" s="38">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="I42" s="41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J42" s="41">
         <v>2</v>
       </c>
       <c r="K42" s="38">
         <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="L42" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M42" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" s="23">
         <f t="shared" si="3"/>
-        <v>0.13333333333333333</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="O42" s="5">
         <v>87</v>
@@ -5416,44 +5416,44 @@
         <v>58</v>
       </c>
       <c r="C43" s="20">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D43" s="20">
         <v>7</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
-        <v>1.7902813299232736E-2</v>
+        <v>1.6908212560386472E-2</v>
       </c>
       <c r="F43" s="41">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G43" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I43" s="41">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J43" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L43" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="3"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="O43" s="5">
         <v>139</v>
@@ -5494,44 +5494,44 @@
         <v>59</v>
       </c>
       <c r="C44" s="20">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D44" s="20">
         <v>12</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
-        <v>4.3321299638989168E-2</v>
+        <v>4.195804195804196E-2</v>
       </c>
       <c r="F44" s="41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="I44" s="41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="L44" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="O44" s="5">
         <v>110</v>
@@ -5572,44 +5572,44 @@
         <v>60</v>
       </c>
       <c r="C45" s="20">
-        <v>557</v>
+        <v>612</v>
       </c>
       <c r="D45" s="20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
-        <v>3.7701974865350089E-2</v>
+        <v>3.7581699346405227E-2</v>
       </c>
       <c r="F45" s="41">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G45" s="41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H45" s="38">
         <f t="shared" si="1"/>
-        <v>4.3478260869565216E-2</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I45" s="41">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J45" s="41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K45" s="38">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L45" s="7">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="M45" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N45" s="23">
         <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="O45" s="5">
         <v>218</v>
@@ -5650,44 +5650,44 @@
         <v>62</v>
       </c>
       <c r="C46" s="20">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D46" s="20">
         <v>15</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
-        <v>4.4510385756676561E-2</v>
+        <v>4.2134831460674156E-2</v>
       </c>
       <c r="F46" s="41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G46" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="38">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I46" s="41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J46" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" s="38">
         <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L46" s="7">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
       </c>
       <c r="N46" s="23">
         <f t="shared" si="3"/>
-        <v>6.9767441860465115E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="O46" s="5">
         <v>109</v>
@@ -5728,17 +5728,17 @@
         <v>63</v>
       </c>
       <c r="C47" s="20">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D47" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
-        <v>2.7397260273972601E-2</v>
+        <v>3.9473684210526314E-2</v>
       </c>
       <c r="F47" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="41">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" s="41">
         <v>0</v>
@@ -5758,14 +5758,14 @@
         <v>0</v>
       </c>
       <c r="L47" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O47" s="5">
         <v>29</v>
@@ -5806,40 +5806,40 @@
         <v>64</v>
       </c>
       <c r="C48" s="20">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D48" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F48" s="41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I48" s="41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J48" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L48" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" s="23">
         <f t="shared" si="3"/>
@@ -5884,44 +5884,44 @@
         <v>65</v>
       </c>
       <c r="C49" s="20">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D49" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>6.1946902654867256E-2</v>
       </c>
       <c r="F49" s="41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I49" s="41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J49" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L49" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M49" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" s="23">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O49" s="5">
         <v>34</v>
@@ -5962,14 +5962,14 @@
         <v>66</v>
       </c>
       <c r="C50" s="27">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D50" s="27">
         <v>2</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
-        <v>5.128205128205128E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F50" s="42">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -6038,51 +6038,51 @@
       <c r="B51" s="47"/>
       <c r="C51" s="11">
         <f>SUM(C4:C50)</f>
-        <v>12617</v>
+        <v>13500</v>
       </c>
       <c r="D51" s="12">
         <f>SUM(D4:D50)</f>
-        <v>430</v>
+        <v>547</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="0"/>
-        <v>3.4081001822937308E-2</v>
+        <v>4.0518518518518516E-2</v>
       </c>
       <c r="F51" s="43">
         <f>SUM(F4:F50)</f>
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="G51" s="43">
         <f>SUM(G4:G50)</f>
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="1"/>
-        <v>7.2215422276621782E-2</v>
+        <v>0.13927227101631118</v>
       </c>
       <c r="I51" s="43">
         <f>SUM(I4:I50)</f>
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="J51" s="43">
         <f>SUM(J4:J50)</f>
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="K51" s="39">
         <f t="shared" ref="K4:K51" si="7">J51/I51</f>
-        <v>7.2215422276621782E-2</v>
+        <v>0.13927227101631118</v>
       </c>
       <c r="L51" s="14">
         <f>SUM(L4:L50)</f>
-        <v>1401</v>
+        <v>2284</v>
       </c>
       <c r="M51" s="14">
         <f>SUM(M4:M50)</f>
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="N51" s="15">
         <f t="shared" si="3"/>
-        <v>0.10563882940756603</v>
+        <v>0.11602451838879159</v>
       </c>
       <c r="O51" s="25">
         <f>SUM(O4:O50)</f>

--- a/TemplateReport.xlsx
+++ b/TemplateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B51F2-40E7-44D9-9501-066F54A28CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5C5D6-C9AB-4B1B-B8B6-FBFB5BAB2EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>Отчет по регистрациям в приложении "Мой Доктор" с 12.07.22</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>мужчины</t>
+  </si>
+  <si>
+    <t>женщины</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +316,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +555,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -625,6 +643,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1893,15 +1915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2195,11 +2217,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2:K50"/>
+      <selection pane="topRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6069,7 +6091,7 @@
         <v>111</v>
       </c>
       <c r="K51" s="39">
-        <f t="shared" ref="K4:K51" si="7">J51/I51</f>
+        <f t="shared" ref="K51" si="7">J51/I51</f>
         <v>0.13927227101631118</v>
       </c>
       <c r="L51" s="14">
@@ -6120,6 +6142,40 @@
         <f>V51/U51</f>
         <v>1.5455950540958269E-3</v>
       </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B52" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B53" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -6142,7 +6198,7 @@
     <cfRule type="aboveAverage" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="landscape" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TemplateReport.xlsx
+++ b/TemplateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5C5D6-C9AB-4B1B-B8B6-FBFB5BAB2EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214EF7DE-7D4E-4E54-9866-0DEB1D31A177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$U$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,13 +35,13 @@
     <t>Отчет по регистрациям в приложении "Мой Доктор" с 12.07.22</t>
   </si>
   <si>
-    <t xml:space="preserve">по 21.10.22 </t>
+    <t xml:space="preserve">по 28.10.22 </t>
   </si>
   <si>
     <t>весь период</t>
   </si>
   <si>
-    <t>неделя 10-06 по 10-12</t>
+    <t>неделя 10-13 по 10-19</t>
   </si>
   <si>
     <t>октябрь</t>
@@ -555,7 +555,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -622,6 +622,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,10 +645,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -937,145 +935,145 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>3.0837004405286344E-2</c:v>
+                  <c:v>3.3057851239669422E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1533546325878593E-2</c:v>
+                  <c:v>6.6066066066066062E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0942408376963352E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6115702479338845E-2</c:v>
+                  <c:v>9.4890510948905105E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3577981651376149E-2</c:v>
+                  <c:v>5.8064516129032261E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6506024096385541E-2</c:v>
+                  <c:v>3.3936651583710405E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9450549450549448E-2</c:v>
+                  <c:v>6.1538461538461542E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0895522388059702E-2</c:v>
+                  <c:v>3.0726256983240222E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0526315789473684E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>9.6774193548387094E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>4.4776119402985072E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8235294117647065E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.515625E-2</c:v>
+                  <c:v>3.3210332103321034E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3902439024390241E-2</c:v>
+                  <c:v>5.0769230769230768E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7960954446854663E-2</c:v>
+                  <c:v>4.5954045954045952E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6442307692307692E-2</c:v>
+                  <c:v>3.4562211981566823E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3245033112582781E-2</c:v>
+                  <c:v>2.5157232704402517E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7622950819672137E-2</c:v>
+                  <c:v>7.020872865275142E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7444933920704845E-2</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2253521126760563E-2</c:v>
+                  <c:v>6.6225165562913912E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.7024128686327081E-2</c:v>
+                  <c:v>7.3604060913705582E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6105610561056105E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.644646924829157E-2</c:v>
+                  <c:v>4.5553145336225599E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2842639593908629E-2</c:v>
+                  <c:v>2.386634844868735E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5161290322580643E-2</c:v>
+                  <c:v>6.5476190476190479E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5096418732782371E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9135802469135796E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0074487895716945E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.825136612021858E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8965517241379309E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9180327868852458E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0120481927710843E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1320754716981132E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0377358490566038E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7621145374449341E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1522491349480967E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.945904173106646E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3050397877984087E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5977011494252873E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2424242424242427E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.64741641337386E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.2083333333333336E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.3953488372093026E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.0697674418604654E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.8823529411764705E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0691244239631339E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.8672566371681415E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.1152647975077882E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.7894736842105263E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.8979591836734691E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.6908212560386472E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.195804195804196E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.7581699346405227E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2134831460674156E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.9473684210526314E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.1946902654867256E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D282-41FE-BB41-4FD027067E27}"/>
+              <c16:uniqueId val="{00000000-E3CD-4973-B0DC-13C3E0ACF7D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,145 +1267,145 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>5.4545454545454543E-2</c:v>
+                  <c:v>5.7142857142857141E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.25675675675675674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29268292682926828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16935483870967741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2072072072072071E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10112359550561797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7971014492753624E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13986013986013987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8130841121495324E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6818181818181816E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8360655737704916E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15306122448979592</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25423728813559321</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24675324675324675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10280373831775701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9382716049382713E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13207547169811321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.2592592592592587E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19318181818181818</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32608695652173914</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5217391304347824E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12962962962962962</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.18518518518518517</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1368421052631579</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7619047619047616E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4776119402985072E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.407407407407407E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.12962962962962962</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.407407407407407E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4285714285714285E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4444444444444446E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36619718309859156</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15942028985507245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.17073170731707318</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.26785714285714285</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.26415094339622641</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0588235294117646E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.3571428571428568E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9411764705882353E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.17948717948717949</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.28169014084507044</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.5714285714285715E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.12820512820512819</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.3170731707317069E-2</c:v>
+                  <c:v>6.7796610169491525E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1</c:v>
+                  <c:v>7.8431372549019607E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.4516129032258063E-2</c:v>
+                  <c:v>7.5471698113207544E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13513513513513514</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>2.0618556701030927E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.5714285714285715E-2</c:v>
+                  <c:v>0.12857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.8387096774193547E-2</c:v>
+                  <c:v>9.6385542168674704E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.13513513513513514</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D282-41FE-BB41-4FD027067E27}"/>
+              <c16:uniqueId val="{00000001-E3CD-4973-B0DC-13C3E0ACF7D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1428,7 +1426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>неделя 10-06 по 10-12</c:v>
+                  <c:v>неделя 10-13 по 10-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,142 +1595,142 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0175438596491224E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1666666666666664E-2</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>2.564102564102564E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13043478260869565</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.21951219512195122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.47058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>7.6923076923076927E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.5238095238095233E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.407407407407407E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.1891891891891892</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -1743,7 +1741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D282-41FE-BB41-4FD027067E27}"/>
+              <c16:uniqueId val="{00000002-E3CD-4973-B0DC-13C3E0ACF7D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2219,9 +2217,9 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C53" sqref="C53"/>
+      <selection pane="topRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,8 +2243,8 @@
     <col min="20" max="20" width="8.109375" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="2" customWidth="1"/>
-    <col min="23" max="26" width="9.109375" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="2"/>
+    <col min="23" max="27" width="9.109375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2279,43 +2277,43 @@
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="48" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="52" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="45"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -2396,44 +2394,44 @@
         <v>14</v>
       </c>
       <c r="C4" s="20">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D4" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" ref="E4:E51" si="0">D4/C4</f>
-        <v>3.0837004405286344E-2</v>
+        <v>3.3057851239669422E-2</v>
       </c>
       <c r="F4" s="40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="38">
         <f t="shared" ref="H4:H51" si="1">G4/F4</f>
-        <v>0.11764705882352941</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I4" s="40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="38">
-        <f t="shared" ref="K4:K50" si="2">J4/I4</f>
-        <v>0.11764705882352941</v>
+        <f t="shared" ref="K4:K51" si="2">J4/I4</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="L4" s="22">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M4" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="23">
         <f t="shared" ref="N4:N51" si="3">M4/L4</f>
-        <v>5.4545454545454543E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="O4" s="19">
         <v>70</v>
@@ -2474,44 +2472,44 @@
         <v>15</v>
       </c>
       <c r="C5" s="20">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D5" s="20">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>4.1533546325878593E-2</v>
+        <v>6.6066066066066062E-2</v>
       </c>
       <c r="F5" s="41">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="I5" s="41">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J5" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="L5" s="7">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N5" s="23">
         <f t="shared" si="3"/>
-        <v>0.18518518518518517</v>
+        <v>0.25675675675675674</v>
       </c>
       <c r="O5" s="5">
         <v>74</v>
@@ -2552,44 +2550,44 @@
         <v>16</v>
       </c>
       <c r="C6" s="20">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D6" s="20">
         <v>4</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>2.0942408376963352E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="F6" s="41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="38">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="38">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="O6" s="5">
         <v>69</v>
@@ -2630,44 +2628,44 @@
         <v>17</v>
       </c>
       <c r="C7" s="20">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D7" s="20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>6.6115702479338845E-2</v>
+        <v>9.4890510948905105E-2</v>
       </c>
       <c r="F7" s="41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G7" s="41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I7" s="41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J7" s="41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L7" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.29268292682926828</v>
       </c>
       <c r="O7" s="5">
         <v>35</v>
@@ -2708,44 +2706,44 @@
         <v>18</v>
       </c>
       <c r="C8" s="20">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="D8" s="20">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>4.3577981651376149E-2</v>
+        <v>5.8064516129032261E-2</v>
       </c>
       <c r="F8" s="41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" si="1"/>
-        <v>0.17857142857142858</v>
+        <v>0.125</v>
       </c>
       <c r="I8" s="41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J8" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="2"/>
-        <v>0.17857142857142858</v>
+        <v>0.125</v>
       </c>
       <c r="L8" s="7">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N8" s="23">
         <f t="shared" si="3"/>
-        <v>0.1368421052631579</v>
+        <v>0.16935483870967741</v>
       </c>
       <c r="O8" s="5">
         <v>130</v>
@@ -2786,44 +2784,44 @@
         <v>19</v>
       </c>
       <c r="C9" s="20">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="D9" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="0"/>
-        <v>2.6506024096385541E-2</v>
+        <v>3.3936651583710405E-2</v>
       </c>
       <c r="F9" s="41">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G9" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="38">
         <f t="shared" si="1"/>
-        <v>0.11538461538461539</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="I9" s="41">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J9" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="2"/>
-        <v>0.11538461538461539</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="L9" s="7">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="3"/>
-        <v>4.7619047619047616E-2</v>
+        <v>7.2072072072072071E-2</v>
       </c>
       <c r="O9" s="5">
         <v>140</v>
@@ -2864,44 +2862,44 @@
         <v>20</v>
       </c>
       <c r="C10" s="20">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D10" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>4.9450549450549448E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="F10" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="41">
         <v>1</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="I10" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="41">
         <v>1</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="L10" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="3"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O10" s="5">
         <v>43</v>
@@ -2942,44 +2940,44 @@
         <v>21</v>
       </c>
       <c r="C11" s="20">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="D11" s="20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>2.0895522388059702E-2</v>
+        <v>3.0726256983240222E-2</v>
       </c>
       <c r="F11" s="41">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G11" s="41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="38">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I11" s="41">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J11" s="41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N11" s="23">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O11" s="5">
         <v>99</v>
@@ -3020,44 +3018,44 @@
         <v>23</v>
       </c>
       <c r="C12" s="20">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>1.3888888888888888E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="F12" s="41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I12" s="41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L12" s="7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="O12" s="5">
         <v>40</v>
@@ -3098,44 +3096,44 @@
         <v>24</v>
       </c>
       <c r="C13" s="20">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0526315789473684E-2</v>
       </c>
       <c r="F13" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="38" t="e">
+      <c r="H13" s="38">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I13" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="41">
         <v>0</v>
       </c>
-      <c r="K13" s="38" t="e">
+      <c r="K13" s="38">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O13" s="5">
         <v>25</v>
@@ -3176,44 +3174,44 @@
         <v>25</v>
       </c>
       <c r="C14" s="20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="F14" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="41">
-        <v>1</v>
-      </c>
-      <c r="H14" s="38">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I14" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="41">
-        <v>1</v>
-      </c>
-      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="O14" s="5">
         <v>9</v>
@@ -3254,44 +3252,44 @@
         <v>26</v>
       </c>
       <c r="C15" s="20">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
-        <v>3.1746031746031744E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="F15" s="41">
+        <v>5</v>
+      </c>
+      <c r="G15" s="41">
         <v>1</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="41">
+        <v>5</v>
+      </c>
+      <c r="J15" s="41">
         <v>1</v>
-      </c>
-      <c r="J15" s="41">
-        <v>0</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="O15" s="5">
         <v>19</v>
@@ -3332,44 +3330,44 @@
         <v>27</v>
       </c>
       <c r="C16" s="20">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D16" s="20">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F16" s="41">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G16" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="I16" s="41">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J16" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="38">
         <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="3"/>
-        <v>4.4776119402985072E-2</v>
+        <v>0.10112359550561797</v>
       </c>
       <c r="O16" s="5">
         <v>115</v>
@@ -3410,44 +3408,44 @@
         <v>28</v>
       </c>
       <c r="C17" s="20">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" s="20">
         <v>3</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
-        <v>8.8235294117647065E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F17" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="41">
-        <v>0</v>
-      </c>
-      <c r="H17" s="38" t="e">
+        <v>2</v>
+      </c>
+      <c r="H17" s="38">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I17" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="41">
-        <v>0</v>
-      </c>
-      <c r="K17" s="38" t="e">
+        <v>2</v>
+      </c>
+      <c r="K17" s="38">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L17" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O17" s="5">
         <v>11</v>
@@ -3488,44 +3486,44 @@
         <v>29</v>
       </c>
       <c r="C18" s="20">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D18" s="20">
         <v>9</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>3.515625E-2</v>
+        <v>3.3210332103321034E-2</v>
       </c>
       <c r="F18" s="41">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G18" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="38">
         <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
       <c r="I18" s="41">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J18" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="38">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
       </c>
       <c r="N18" s="23">
         <f t="shared" si="3"/>
-        <v>7.407407407407407E-2</v>
+        <v>5.7971014492753624E-2</v>
       </c>
       <c r="O18" s="5">
         <v>84</v>
@@ -3566,44 +3564,44 @@
         <v>31</v>
       </c>
       <c r="C19" s="20">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="D19" s="20">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
-        <v>4.3902439024390241E-2</v>
+        <v>5.0769230769230768E-2</v>
       </c>
       <c r="F19" s="41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="I19" s="41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K19" s="38">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="M19" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="3"/>
-        <v>0.12962962962962962</v>
+        <v>0.13986013986013987</v>
       </c>
       <c r="O19" s="5">
         <v>175</v>
@@ -3644,44 +3642,44 @@
         <v>32</v>
       </c>
       <c r="C20" s="20">
-        <v>922</v>
+        <v>1001</v>
       </c>
       <c r="D20" s="20">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
-        <v>3.7960954446854663E-2</v>
+        <v>4.5954045954045952E-2</v>
       </c>
       <c r="F20" s="41">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G20" s="41">
         <v>4</v>
       </c>
       <c r="H20" s="38">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="I20" s="41">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J20" s="41">
         <v>4</v>
       </c>
       <c r="K20" s="38">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="3"/>
-        <v>7.407407407407407E-2</v>
+        <v>9.8130841121495324E-2</v>
       </c>
       <c r="O20" s="5">
         <v>296</v>
@@ -3722,44 +3720,44 @@
         <v>33</v>
       </c>
       <c r="C21" s="20">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D21" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
-        <v>2.6442307692307692E-2</v>
+        <v>3.4562211981566823E-2</v>
       </c>
       <c r="F21" s="41">
         <v>24</v>
       </c>
       <c r="G21" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="38">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="41">
         <v>24</v>
       </c>
       <c r="J21" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="38">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="3"/>
-        <v>1.4285714285714285E-2</v>
+        <v>5.6818181818181816E-2</v>
       </c>
       <c r="O21" s="5">
         <v>139</v>
@@ -3800,44 +3798,44 @@
         <v>34</v>
       </c>
       <c r="C22" s="20">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D22" s="20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
-        <v>1.3245033112582781E-2</v>
+        <v>2.5157232704402517E-2</v>
       </c>
       <c r="F22" s="41">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G22" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="38">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="41">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J22" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="38">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="3"/>
-        <v>4.4444444444444446E-2</v>
+        <v>9.8360655737704916E-2</v>
       </c>
       <c r="O22" s="5">
         <v>97</v>
@@ -3878,44 +3876,44 @@
         <v>35</v>
       </c>
       <c r="C23" s="20">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="D23" s="20">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
-        <v>6.7622950819672137E-2</v>
+        <v>7.020872865275142E-2</v>
       </c>
       <c r="F23" s="41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G23" s="41">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H23" s="38">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I23" s="41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J23" s="41">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K23" s="38">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L23" s="7">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="3"/>
-        <v>0.36619718309859156</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O23" s="5">
         <v>151</v>
@@ -3956,44 +3954,44 @@
         <v>36</v>
       </c>
       <c r="C24" s="20">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D24" s="20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>3.7444933920704845E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="F24" s="41">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G24" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" s="38">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="I24" s="41">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J24" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K24" s="38">
         <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="L24" s="7">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="3"/>
-        <v>0.15942028985507245</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="O24" s="5">
         <v>139</v>
@@ -4034,44 +4032,44 @@
         <v>38</v>
       </c>
       <c r="C25" s="20">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D25" s="20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>4.2253521126760563E-2</v>
+        <v>6.6225165562913912E-2</v>
       </c>
       <c r="F25" s="41">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G25" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="38">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I25" s="41">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J25" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="38">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L25" s="7">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="3"/>
-        <v>0.17073170731707318</v>
+        <v>0.25423728813559321</v>
       </c>
       <c r="O25" s="5">
         <v>91</v>
@@ -4112,44 +4110,44 @@
         <v>39</v>
       </c>
       <c r="C26" s="20">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D26" s="20">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>6.7024128686327081E-2</v>
+        <v>7.3604060913705582E-2</v>
       </c>
       <c r="F26" s="41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G26" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="38">
         <f t="shared" si="1"/>
-        <v>0.21052631578947367</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I26" s="41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K26" s="38">
         <f t="shared" si="2"/>
-        <v>0.21052631578947367</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L26" s="7">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="3"/>
-        <v>0.26785714285714285</v>
+        <v>0.24675324675324675</v>
       </c>
       <c r="O26" s="5">
         <v>124</v>
@@ -4190,44 +4188,44 @@
         <v>40</v>
       </c>
       <c r="C27" s="20">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D27" s="20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>5.6105610561056105E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F27" s="41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" s="41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H27" s="38">
         <f t="shared" si="1"/>
-        <v>0.17647058823529413</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I27" s="41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" s="41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K27" s="38">
         <f t="shared" si="2"/>
-        <v>0.17647058823529413</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="L27" s="7">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="3"/>
-        <v>0.26415094339622641</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="O27" s="5">
         <v>94</v>
@@ -4268,44 +4266,44 @@
         <v>41</v>
       </c>
       <c r="C28" s="20">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="D28" s="20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>3.644646924829157E-2</v>
+        <v>4.5553145336225599E-2</v>
       </c>
       <c r="F28" s="41">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G28" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="38">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="I28" s="41">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J28" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="38">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="L28" s="7">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>7.0588235294117646E-2</v>
+        <v>0.10280373831775701</v>
       </c>
       <c r="O28" s="5">
         <v>148</v>
@@ -4346,44 +4344,44 @@
         <v>42</v>
       </c>
       <c r="C29" s="20">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="D29" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>2.2842639593908629E-2</v>
+        <v>2.386634844868735E-2</v>
       </c>
       <c r="F29" s="41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="41">
         <v>1</v>
       </c>
       <c r="H29" s="38">
         <f t="shared" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I29" s="41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J29" s="41">
         <v>1</v>
       </c>
       <c r="K29" s="38">
         <f t="shared" si="2"/>
-        <v>4.7619047619047616E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L29" s="7">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="3"/>
-        <v>5.3571428571428568E-2</v>
+        <v>4.9382716049382713E-2</v>
       </c>
       <c r="O29" s="5">
         <v>131</v>
@@ -4424,44 +4422,44 @@
         <v>44</v>
       </c>
       <c r="C30" s="20">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D30" s="20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>4.5161290322580643E-2</v>
+        <v>6.5476190476190479E-2</v>
       </c>
       <c r="F30" s="41">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="38">
         <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="41">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J30" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="38">
         <f t="shared" si="2"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0.2</v>
       </c>
       <c r="L30" s="7">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M30" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="3"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.13207547169811321</v>
       </c>
       <c r="O30" s="5">
         <v>43</v>
@@ -4502,44 +4500,44 @@
         <v>45</v>
       </c>
       <c r="C31" s="20">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D31" s="20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F31" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="38">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="38">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L31" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O31" s="5">
         <v>41</v>
@@ -4580,44 +4578,44 @@
         <v>46</v>
       </c>
       <c r="C32" s="20">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D32" s="20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="41">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G32" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="38">
         <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="41">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J32" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="38">
         <f t="shared" si="2"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="7">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="3"/>
-        <v>2.9411764705882353E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="O32" s="5">
         <v>59</v>
@@ -4658,44 +4656,44 @@
         <v>47</v>
       </c>
       <c r="C33" s="20">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="D33" s="20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>3.64741641337386E-2</v>
+        <v>5.5096418732782371E-2</v>
       </c>
       <c r="F33" s="41">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G33" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" s="38">
         <f t="shared" si="1"/>
-        <v>0.13043478260869565</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="I33" s="41">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J33" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" s="38">
         <f t="shared" si="2"/>
-        <v>0.13043478260869565</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="L33" s="7">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.19318181818181818</v>
       </c>
       <c r="O33" s="5">
         <v>120</v>
@@ -4736,44 +4734,44 @@
         <v>48</v>
       </c>
       <c r="C34" s="20">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D34" s="20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>5.2083333333333336E-2</v>
+        <v>6.9135802469135796E-2</v>
       </c>
       <c r="F34" s="41">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G34" s="41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H34" s="38">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="I34" s="41">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J34" s="41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K34" s="38">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="L34" s="7">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="M34" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="3"/>
-        <v>0.17948717948717949</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O34" s="5">
         <v>134</v>
@@ -4814,44 +4812,44 @@
         <v>50</v>
       </c>
       <c r="C35" s="20">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="D35" s="20">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>6.3953488372093026E-2</v>
+        <v>8.0074487895716945E-2</v>
       </c>
       <c r="F35" s="41">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G35" s="41">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H35" s="38">
         <f t="shared" si="1"/>
-        <v>5.5555555555555552E-2</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="I35" s="41">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J35" s="41">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K35" s="38">
         <f t="shared" si="2"/>
-        <v>5.5555555555555552E-2</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="L35" s="7">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="M35" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="3"/>
-        <v>0.28169014084507044</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="O35" s="5">
         <v>186</v>
@@ -4892,44 +4890,44 @@
         <v>51</v>
       </c>
       <c r="C36" s="20">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D36" s="20">
         <v>7</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
-        <v>4.0697674418604654E-2</v>
+        <v>3.825136612021858E-2</v>
       </c>
       <c r="F36" s="41">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G36" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="I36" s="41">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J36" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="L36" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="3"/>
-        <v>8.5714285714285715E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="O36" s="5">
         <v>68</v>
@@ -4970,44 +4968,44 @@
         <v>52</v>
       </c>
       <c r="C37" s="20">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D37" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>6.7567567567567571E-2</v>
       </c>
       <c r="F37" s="41">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G37" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="38">
         <f t="shared" si="1"/>
-        <v>0.10526315789473684</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I37" s="41">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J37" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="38">
         <f t="shared" si="2"/>
-        <v>0.10526315789473684</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L37" s="7">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="O37" s="5">
         <v>57</v>
@@ -5048,44 +5046,44 @@
         <v>53</v>
       </c>
       <c r="C38" s="20">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D38" s="20">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>5.0691244239631339E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="F38" s="41">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G38" s="41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38" s="38">
         <f t="shared" si="1"/>
-        <v>0.21052631578947367</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I38" s="41">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J38" s="41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="2"/>
-        <v>0.21052631578947367</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L38" s="7">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="3"/>
-        <v>0.12820512820512819</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="O38" s="5">
         <v>71</v>
@@ -5126,44 +5124,44 @@
         <v>54</v>
       </c>
       <c r="C39" s="20">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D39" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
-        <v>4.8672566371681415E-2</v>
+        <v>4.9180327868852458E-2</v>
       </c>
       <c r="F39" s="41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G39" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I39" s="41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J39" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L39" s="7">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="3"/>
-        <v>7.3170731707317069E-2</v>
+        <v>6.7796610169491525E-2</v>
       </c>
       <c r="O39" s="5">
         <v>63</v>
@@ -5204,44 +5202,44 @@
         <v>55</v>
       </c>
       <c r="C40" s="20">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D40" s="20">
         <v>10</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
-        <v>3.1152647975077882E-2</v>
+        <v>3.0120481927710843E-2</v>
       </c>
       <c r="F40" s="41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="38">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I40" s="41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J40" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" s="38">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L40" s="7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
       </c>
       <c r="N40" s="23">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="O40" s="5">
         <v>96</v>
@@ -5282,44 +5280,44 @@
         <v>56</v>
       </c>
       <c r="C41" s="20">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="D41" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>5.7894736842105263E-2</v>
+        <v>6.1320754716981132E-2</v>
       </c>
       <c r="F41" s="41">
         <v>13</v>
       </c>
       <c r="G41" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="41">
         <v>13</v>
       </c>
       <c r="J41" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="38">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
       <c r="L41" s="7">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M41" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="3"/>
-        <v>6.4516129032258063E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="O41" s="5">
         <v>62</v>
@@ -5360,44 +5358,44 @@
         <v>57</v>
       </c>
       <c r="C42" s="20">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D42" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
-        <v>4.8979591836734691E-2</v>
+        <v>6.0377358490566038E-2</v>
       </c>
       <c r="F42" s="41">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G42" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="38">
         <f t="shared" si="1"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I42" s="41">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J42" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="38">
         <f t="shared" si="2"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L42" s="7">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M42" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N42" s="23">
         <f t="shared" si="3"/>
-        <v>0.13513513513513514</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="O42" s="5">
         <v>87</v>
@@ -5438,44 +5436,44 @@
         <v>58</v>
       </c>
       <c r="C43" s="20">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="D43" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
-        <v>1.6908212560386472E-2</v>
+        <v>1.7621145374449341E-2</v>
       </c>
       <c r="F43" s="41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G43" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="38">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J43" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="38">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="L43" s="7">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="M43" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="3"/>
-        <v>1.7543859649122806E-2</v>
+        <v>2.0618556701030927E-2</v>
       </c>
       <c r="O43" s="5">
         <v>139</v>
@@ -5516,44 +5514,44 @@
         <v>59</v>
       </c>
       <c r="C44" s="20">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D44" s="20">
         <v>12</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
-        <v>4.195804195804196E-2</v>
+        <v>4.1522491349480967E-2</v>
       </c>
       <c r="F44" s="41">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G44" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="38">
         <f t="shared" si="1"/>
-        <v>7.407407407407407E-2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="41">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J44" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" s="38">
         <f t="shared" si="2"/>
-        <v>7.407407407407407E-2</v>
+        <v>0</v>
       </c>
       <c r="L44" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="3"/>
-        <v>4.4444444444444446E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="O44" s="5">
         <v>110</v>
@@ -5594,44 +5592,44 @@
         <v>60</v>
       </c>
       <c r="C45" s="20">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="D45" s="20">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
-        <v>3.7581699346405227E-2</v>
+        <v>4.945904173106646E-2</v>
       </c>
       <c r="F45" s="41">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G45" s="41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H45" s="38">
         <f t="shared" si="1"/>
-        <v>0.1891891891891892</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="I45" s="41">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J45" s="41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K45" s="38">
         <f t="shared" si="2"/>
-        <v>0.1891891891891892</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="L45" s="7">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="M45" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N45" s="23">
         <f t="shared" si="3"/>
-        <v>8.5714285714285715E-2</v>
+        <v>0.12857142857142856</v>
       </c>
       <c r="O45" s="5">
         <v>218</v>
@@ -5672,44 +5670,44 @@
         <v>62</v>
       </c>
       <c r="C46" s="20">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="D46" s="20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
-        <v>4.2134831460674156E-2</v>
+        <v>5.3050397877984087E-2</v>
       </c>
       <c r="F46" s="41">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G46" s="41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46" s="38">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="I46" s="41">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J46" s="41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46" s="38">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="L46" s="7">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="M46" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N46" s="23">
         <f t="shared" si="3"/>
-        <v>4.8387096774193547E-2</v>
+        <v>9.6385542168674704E-2</v>
       </c>
       <c r="O46" s="5">
         <v>109</v>
@@ -5750,44 +5748,44 @@
         <v>63</v>
       </c>
       <c r="C47" s="20">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D47" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
-        <v>3.9473684210526314E-2</v>
+        <v>4.5977011494252873E-2</v>
       </c>
       <c r="F47" s="41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I47" s="41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J47" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L47" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="O47" s="5">
         <v>29</v>
@@ -5828,40 +5826,40 @@
         <v>64</v>
       </c>
       <c r="C48" s="20">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D48" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.2424242424242427E-2</v>
       </c>
       <c r="F48" s="41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="41">
         <v>1</v>
       </c>
       <c r="H48" s="38">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I48" s="41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J48" s="41">
         <v>1</v>
       </c>
       <c r="K48" s="38">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="L48" s="7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M48" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" s="23">
         <f t="shared" si="3"/>
@@ -5906,44 +5904,44 @@
         <v>65</v>
       </c>
       <c r="C49" s="20">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D49" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
-        <v>6.1946902654867256E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F49" s="41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="38">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I49" s="41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="38">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="L49" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M49" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" s="23">
         <f t="shared" si="3"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="O49" s="5">
         <v>34</v>
@@ -5984,17 +5982,17 @@
         <v>66</v>
       </c>
       <c r="C50" s="27">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D50" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="F50" s="42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="42">
         <v>0</v>
@@ -6004,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J50" s="42">
         <v>0</v>
@@ -6014,14 +6012,14 @@
         <v>0</v>
       </c>
       <c r="L50" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O50" s="8">
         <v>12</v>
@@ -6054,57 +6052,57 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="47"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="11">
         <f>SUM(C4:C50)</f>
-        <v>13500</v>
+        <v>14409</v>
       </c>
       <c r="D51" s="12">
         <f>SUM(D4:D50)</f>
-        <v>547</v>
+        <v>718</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="0"/>
-        <v>4.0518518518518516E-2</v>
+        <v>4.9829967381497677E-2</v>
       </c>
       <c r="F51" s="43">
         <f>SUM(F4:F50)</f>
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="G51" s="43">
         <f>SUM(G4:G50)</f>
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="1"/>
-        <v>0.13927227101631118</v>
+        <v>0.12110726643598616</v>
       </c>
       <c r="I51" s="43">
         <f>SUM(I4:I50)</f>
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="J51" s="43">
         <f>SUM(J4:J50)</f>
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K51" s="39">
-        <f t="shared" ref="K51" si="7">J51/I51</f>
-        <v>0.13927227101631118</v>
+        <f t="shared" si="2"/>
+        <v>0.12110726643598616</v>
       </c>
       <c r="L51" s="14">
         <f>SUM(L4:L50)</f>
-        <v>2284</v>
+        <v>3193</v>
       </c>
       <c r="M51" s="14">
         <f>SUM(M4:M50)</f>
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="N51" s="15">
         <f t="shared" si="3"/>
-        <v>0.11602451838879159</v>
+        <v>0.13654870028186658</v>
       </c>
       <c r="O51" s="25">
         <f>SUM(O4:O50)</f>
@@ -6144,38 +6142,70 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
+      <c r="C52" s="44">
+        <v>5239</v>
+      </c>
+      <c r="D52" s="44">
+        <v>214</v>
+      </c>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44">
+        <v>300</v>
+      </c>
+      <c r="G52" s="44">
+        <v>45</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44">
+        <v>300</v>
+      </c>
+      <c r="J52" s="44">
+        <v>45</v>
+      </c>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44">
+        <v>1143</v>
+      </c>
+      <c r="M52" s="44">
+        <v>135</v>
+      </c>
+      <c r="N52" s="44"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
+      <c r="C53" s="45">
+        <v>9170</v>
+      </c>
+      <c r="D53" s="45">
+        <v>504</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45">
+        <v>567</v>
+      </c>
+      <c r="G53" s="45">
+        <v>60</v>
+      </c>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45">
+        <v>567</v>
+      </c>
+      <c r="J53" s="45">
+        <v>60</v>
+      </c>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45">
+        <v>2050</v>
+      </c>
+      <c r="M53" s="45">
+        <v>301</v>
+      </c>
+      <c r="N53" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -6198,7 +6228,7 @@
     <cfRule type="aboveAverage" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="45" fitToWidth="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>